--- a/Client/Assets/Tables/Res.xlsx
+++ b/Client/Assets/Tables/Res.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vsProjects\Serious\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshuai/Desktop/test/Client/Assets/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04482688-6882-A348-8968-B996239FDDA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7065" windowWidth="28695" windowHeight="7005"/>
+    <workbookView xWindow="0" yWindow="2320" windowWidth="28700" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,23 +474,23 @@
     <t>书本</t>
   </si>
   <si>
-    <t>卡类型：0物品无限次卡，1物品一次性卡，-1预兆卡，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardClassType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主动效果（如果需要考验，则考验决定是否可使用）：0无主动，1看牌堆，选择N张置顶，2用狗，3用面具，4以神志攻击，5物理转精神，6力量攻击加成，7骰子增加，8置顶骰子结果最大值，9物理损伤减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡类型：0预兆卡，1物品无限次卡，2物品一次性卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,27 +856,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="9" width="13.375" style="1" customWidth="1"/>
+    <col min="6" max="9" width="13.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="12" width="13.25" style="1" customWidth="1"/>
+    <col min="11" max="12" width="13.1640625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>52</v>
@@ -898,7 +899,7 @@
         <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>60</v>
@@ -913,7 +914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -951,7 +952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -962,7 +963,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>50</v>
@@ -989,7 +990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
@@ -1027,7 +1028,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>50</v>
@@ -1065,7 +1066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>10004</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
@@ -1103,7 +1104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>10005</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>50</v>
@@ -1141,7 +1142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>10006</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>53</v>
@@ -1179,7 +1180,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>10007</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>51</v>
@@ -1217,7 +1218,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>10008</v>
       </c>
@@ -1228,7 +1229,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>50</v>
@@ -1252,7 +1253,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>10009</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>50</v>
@@ -1290,7 +1291,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>20001</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>118</v>
       </c>
       <c r="D12" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>117</v>
@@ -1328,7 +1329,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>20002</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>112</v>
       </c>
       <c r="D13" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>50</v>
@@ -1366,7 +1367,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>20003</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>108</v>
       </c>
       <c r="D14" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>50</v>
@@ -1404,7 +1405,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>20004</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>104</v>
       </c>
       <c r="D15" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>103</v>
@@ -1442,7 +1443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>20005</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>98</v>
       </c>
       <c r="D16" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>97</v>
@@ -1480,7 +1481,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>20006</v>
       </c>
@@ -1491,7 +1492,7 @@
         <v>92</v>
       </c>
       <c r="D17" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>91</v>
@@ -1518,7 +1519,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>20007</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>86</v>
       </c>
       <c r="D18" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>85</v>
@@ -1556,7 +1557,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>20008</v>
       </c>
@@ -1567,7 +1568,7 @@
         <v>80</v>
       </c>
       <c r="D19" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -1594,7 +1595,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>20009</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>76</v>
       </c>
       <c r="D20" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>50</v>
@@ -1629,7 +1630,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>20010</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>73</v>
       </c>
       <c r="D21" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>64</v>
@@ -1667,7 +1668,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20011</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>69</v>
       </c>
       <c r="D22" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>64</v>
@@ -1705,7 +1706,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>20012</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>64</v>
@@ -1745,12 +1746,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F11 J1:XFD11 H7:I11 H24:XFD1048576 A24:F1048576 A5:A23">
+  <conditionalFormatting sqref="A1:F11 J1:XFD11 H7:I11 A5:A23 A24:XFD1048576">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G11 G24:G1048576">
+  <conditionalFormatting sqref="G1:G11">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
